--- a/robot_config.xlsx
+++ b/robot_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>小SAM</t>
-  </si>
-  <si>
-    <t>Museum7565</t>
+    <t>PokeBro</t>
+  </si>
+  <si>
+    <t>revangeday</t>
   </si>
   <si>
     <t>Jang °</t>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Scheduler Content</t>
+  </si>
+  <si>
+    <t>test0</t>
   </si>
   <si>
     <t>Enable</t>
@@ -2296,7 +2299,9 @@
       <c r="E1" s="26"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="28"/>
+      <c r="A2" t="s" s="28">
+        <v>46</v>
+      </c>
       <c r="B2" s="28"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2383,10 +2388,10 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="28">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s" s="28">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -2394,10 +2399,10 @@
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="28">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>

--- a/robot_config.xlsx
+++ b/robot_config.xlsx
@@ -112,10 +112,10 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>PokeBro</t>
-  </si>
-  <si>
-    <t>revangeday</t>
+    <t>小SAM</t>
+  </si>
+  <si>
+    <t>Museum7565</t>
   </si>
   <si>
     <t>Jang °</t>
@@ -242,7 +242,7 @@
     <t>Scheduler Content</t>
   </si>
   <si>
-    <t>test0</t>
+    <t>小助手交付群</t>
   </si>
   <si>
     <t>Enable</t>
